--- a/Code/Results/Cases/Case_2_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_73/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.435511113735743</v>
+        <v>1.48233129632132</v>
       </c>
       <c r="C2">
-        <v>0.4547630557800346</v>
+        <v>0.2482008696125888</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08939414147295466</v>
+        <v>0.2224249889558898</v>
       </c>
       <c r="F2">
-        <v>0.8928644841660258</v>
+        <v>1.730135100785049</v>
       </c>
       <c r="G2">
-        <v>0.0007967637831481391</v>
+        <v>0.002439348504210898</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2290484456912054</v>
+        <v>0.7078716785253718</v>
       </c>
       <c r="J2">
-        <v>0.05616838122817569</v>
+        <v>0.03852121305155265</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5541727827567797</v>
+        <v>0.5638261547553753</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.188856371609688</v>
+        <v>2.668821190617322</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.98857704540319</v>
+        <v>1.342838457139123</v>
       </c>
       <c r="C3">
-        <v>0.4110567514300953</v>
+        <v>0.2336297118149275</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08694508565483972</v>
+        <v>0.2230072569894173</v>
       </c>
       <c r="F3">
-        <v>0.8513077176477353</v>
+        <v>1.73612048323141</v>
       </c>
       <c r="G3">
-        <v>0.0008010560099188799</v>
+        <v>0.002442154109169425</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2432865170440586</v>
+        <v>0.7202676486182042</v>
       </c>
       <c r="J3">
-        <v>0.05184040713911742</v>
+        <v>0.03710096342302194</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4925004008004521</v>
+        <v>0.5480674279924074</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.172482700723748</v>
+        <v>2.698625649367003</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.714489348422262</v>
+        <v>1.257106423246455</v>
       </c>
       <c r="C4">
-        <v>0.3842268745781894</v>
+        <v>0.2246390865130081</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0855446208246935</v>
+        <v>0.2234407044868014</v>
       </c>
       <c r="F4">
-        <v>0.8278283110050069</v>
+        <v>1.740884932627303</v>
       </c>
       <c r="G4">
-        <v>0.0008037747937966181</v>
+        <v>0.002443968137365772</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.253063559663822</v>
+        <v>0.7284045246273241</v>
       </c>
       <c r="J4">
-        <v>0.04919588107278017</v>
+        <v>0.03623254804905685</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4549168567270669</v>
+        <v>0.5385549524080204</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.166895082818598</v>
+        <v>2.719056679568027</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.602842097221355</v>
+        <v>1.222151400771963</v>
       </c>
       <c r="C5">
-        <v>0.3732915630455125</v>
+        <v>0.2209645445754234</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08499903243555984</v>
+        <v>0.2236364696800575</v>
       </c>
       <c r="F5">
-        <v>0.8187455753976778</v>
+        <v>1.743100326541857</v>
       </c>
       <c r="G5">
-        <v>0.0008049041112582865</v>
+        <v>0.002444730413988642</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2572966837835313</v>
+        <v>0.7318523656658567</v>
       </c>
       <c r="J5">
-        <v>0.04812114036728588</v>
+        <v>0.0358796074998402</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4396653769662748</v>
+        <v>0.5347199537193035</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.165681047576797</v>
+        <v>2.727917418158412</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.584304865533625</v>
+        <v>1.216346095774611</v>
       </c>
       <c r="C6">
-        <v>0.3714755520302617</v>
+        <v>0.2203537452764124</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08490993041773898</v>
+        <v>0.2236701329728756</v>
       </c>
       <c r="F6">
-        <v>0.817265947229707</v>
+        <v>1.743484727579776</v>
       </c>
       <c r="G6">
-        <v>0.0008050929379117796</v>
+        <v>0.002444858383492399</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2580143035859521</v>
+        <v>0.7324328437168539</v>
       </c>
       <c r="J6">
-        <v>0.04794284853893416</v>
+        <v>0.03582106013499242</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4371365512558896</v>
+        <v>0.5340856655445521</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.165541961690764</v>
+        <v>2.729421018310305</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.712983497383505</v>
+        <v>1.256635079502018</v>
       </c>
       <c r="C7">
-        <v>0.3840794092438955</v>
+        <v>0.2245895737154342</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0855371622489205</v>
+        <v>0.2234432671299551</v>
       </c>
       <c r="F7">
-        <v>0.8277038874973215</v>
+        <v>1.740913701558483</v>
       </c>
       <c r="G7">
-        <v>0.0008037899369283516</v>
+        <v>0.002443978324251651</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2531196558084563</v>
+        <v>0.7284504892210997</v>
       </c>
       <c r="J7">
-        <v>0.04918137529323729</v>
+        <v>0.03622778429424045</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.454710919500755</v>
+        <v>0.5385030641808441</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.166874483085451</v>
+        <v>2.71917401391606</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.281315793896283</v>
+        <v>1.43425270355732</v>
       </c>
       <c r="C8">
-        <v>0.4396897296926738</v>
+        <v>0.2431859818369446</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08852774627305848</v>
+        <v>0.2226100176871739</v>
       </c>
       <c r="F8">
-        <v>0.878096440649216</v>
+        <v>1.73197269428708</v>
       </c>
       <c r="G8">
-        <v>0.0007982267144441353</v>
+        <v>0.002440296953108719</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2337359767328202</v>
+        <v>0.7120365848545021</v>
       </c>
       <c r="J8">
-        <v>0.05467322954739018</v>
+        <v>0.0380307790792962</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5328448214972639</v>
+        <v>0.5583588036437419</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.182246735795957</v>
+        <v>2.678654930298222</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.40033246341784</v>
+        <v>1.781818881814047</v>
       </c>
       <c r="C9">
-        <v>0.5489618863994963</v>
+        <v>0.2792964360062058</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.09525265741671163</v>
+        <v>0.2215769483741141</v>
       </c>
       <c r="F9">
-        <v>0.9943596936945767</v>
+        <v>1.723089455463139</v>
       </c>
       <c r="G9">
-        <v>0.0007879576253351558</v>
+        <v>0.002433799681315419</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2044733999306594</v>
+        <v>0.6840284774833876</v>
       </c>
       <c r="J9">
-        <v>0.06556060771636396</v>
+        <v>0.04159387204904164</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.688668299346574</v>
+        <v>0.5985813719161968</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.250696700267895</v>
+        <v>2.616147668264773</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.228140937372302</v>
+        <v>2.036637107487024</v>
       </c>
       <c r="C10">
-        <v>0.6296482206144844</v>
+        <v>0.3055997833247659</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1007788450896889</v>
+        <v>0.2211823557134203</v>
       </c>
       <c r="F10">
-        <v>1.092316907074505</v>
+        <v>1.721847347271577</v>
       </c>
       <c r="G10">
-        <v>0.0007807722699686623</v>
+        <v>0.00242946180980208</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1891009737296336</v>
+        <v>0.6660097676305483</v>
       </c>
       <c r="J10">
-        <v>0.07365603153012756</v>
+        <v>0.04422689646723654</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8052754058545588</v>
+        <v>0.6289048306161078</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.328593854877425</v>
+        <v>2.580616452829901</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.606674819618206</v>
+        <v>2.152427113607985</v>
       </c>
       <c r="C11">
-        <v>0.6665088245643176</v>
+        <v>0.3175147882221836</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1034344276501038</v>
+        <v>0.221081573257063</v>
       </c>
       <c r="F11">
-        <v>1.140058370006301</v>
+        <v>1.72243229130612</v>
       </c>
       <c r="G11">
-        <v>0.000777574118994566</v>
+        <v>0.002427582064059057</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1836278348303289</v>
+        <v>0.6583705405436575</v>
       </c>
       <c r="J11">
-        <v>0.07736584968462523</v>
+        <v>0.04542773618049267</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8589138253240094</v>
+        <v>0.6428651272940158</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.371047449152371</v>
+        <v>2.566721917498711</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.750360716581213</v>
+        <v>2.19625344309577</v>
       </c>
       <c r="C12">
-        <v>0.6804953490438947</v>
+        <v>0.3220192239852793</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1044616855760978</v>
+        <v>0.2210546940313698</v>
       </c>
       <c r="F12">
-        <v>1.15863509547593</v>
+        <v>1.722819321613812</v>
       </c>
       <c r="G12">
-        <v>0.0007763725496586428</v>
+        <v>0.002426883637840156</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1817910758129457</v>
+        <v>0.6555581514671971</v>
       </c>
       <c r="J12">
-        <v>0.07877510382385111</v>
+        <v>0.0458828731987424</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8793221140613241</v>
+        <v>0.6481751381801359</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.388225242560424</v>
+        <v>2.561787705248349</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.719399081923768</v>
+        <v>2.186815623630366</v>
       </c>
       <c r="C13">
-        <v>0.6774817481968682</v>
+        <v>0.3210494515171831</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1042394632764143</v>
+        <v>0.2210599816091623</v>
       </c>
       <c r="F13">
-        <v>1.154611431305128</v>
+        <v>1.722728603456162</v>
       </c>
       <c r="G13">
-        <v>0.0007766309171842184</v>
+        <v>0.002427033461893829</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1821758786552401</v>
+        <v>0.6561602692055075</v>
       </c>
       <c r="J13">
-        <v>0.0784713900972136</v>
+        <v>0.04578483384381116</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8749223392016461</v>
+        <v>0.6470304900572899</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.38447515678655</v>
+        <v>2.562835799875501</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.618488692794244</v>
+        <v>2.15603316338013</v>
       </c>
       <c r="C14">
-        <v>0.6676589039030034</v>
+        <v>0.3178855229764679</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1035184993529832</v>
+        <v>0.2210791359203057</v>
       </c>
       <c r="F14">
-        <v>1.14157646185123</v>
+        <v>1.722460814261112</v>
       </c>
       <c r="G14">
-        <v>0.0007774750785458857</v>
+        <v>0.002427524336008928</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.18347189427692</v>
+        <v>0.6581375504720199</v>
       </c>
       <c r="J14">
-        <v>0.07748169801813987</v>
+        <v>0.04546517266052064</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8605908240670885</v>
+        <v>0.6433015149528387</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.372438044884149</v>
+        <v>2.566309410100388</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.556724793176272</v>
+        <v>2.137175233335029</v>
       </c>
       <c r="C15">
-        <v>0.6616459830011934</v>
+        <v>0.3159465388556555</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1030797463779649</v>
+        <v>0.2210923370822577</v>
       </c>
       <c r="F15">
-        <v>1.133658292318344</v>
+        <v>1.722318346513688</v>
       </c>
       <c r="G15">
-        <v>0.0007779933694028743</v>
+        <v>0.002427826752753225</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1842969837450816</v>
+        <v>0.6593591726287897</v>
       </c>
       <c r="J15">
-        <v>0.07687607570335331</v>
+        <v>0.04526942266215883</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.851825285122743</v>
+        <v>0.6410204673599651</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.365211285219743</v>
+        <v>2.568479759365459</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.20344743361494</v>
+        <v>2.029067173963767</v>
       </c>
       <c r="C16">
-        <v>0.6272429148425545</v>
+        <v>0.3048200714225118</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1006082544173523</v>
+        <v>0.2211905231408728</v>
       </c>
       <c r="F16">
-        <v>1.08926429928988</v>
+        <v>1.721832274012129</v>
       </c>
       <c r="G16">
-        <v>0.0007809826419021996</v>
+        <v>0.002429586533196975</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1894906843103819</v>
+        <v>0.6665202495943952</v>
       </c>
       <c r="J16">
-        <v>0.07341417629896796</v>
+        <v>0.0441484773777745</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.801782890420327</v>
+        <v>0.6279958052767824</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.325968363149371</v>
+        <v>2.581570241167896</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.987267297537699</v>
+        <v>1.962711850461744</v>
       </c>
       <c r="C17">
-        <v>0.6061816513058034</v>
+        <v>0.2979812235289785</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0991292421748966</v>
+        <v>0.2212708942571382</v>
       </c>
       <c r="F17">
-        <v>1.062872606268613</v>
+        <v>1.721828736233974</v>
       </c>
       <c r="G17">
-        <v>0.0007828340821854279</v>
+        <v>0.002430690023075055</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1930779889121652</v>
+        <v>0.6710563187628047</v>
       </c>
       <c r="J17">
-        <v>0.07129772751031282</v>
+        <v>0.04346157309497301</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7712431949677807</v>
+        <v>0.6200478849832507</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.303755029420216</v>
+        <v>2.590182701793964</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.863106668632895</v>
+        <v>1.92453411048416</v>
       </c>
       <c r="C18">
-        <v>0.5940820753426976</v>
+        <v>0.2940429589000075</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09829180904010926</v>
+        <v>0.2213245331516411</v>
       </c>
       <c r="F18">
-        <v>1.047989526937329</v>
+        <v>1.721934934104624</v>
       </c>
       <c r="G18">
-        <v>0.0007839056585497109</v>
+        <v>0.002431333532708581</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1952832607544224</v>
+        <v>0.6737178128662826</v>
       </c>
       <c r="J18">
-        <v>0.07008292571832442</v>
+        <v>0.04306677438907514</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7537326843819301</v>
+        <v>0.6154920955624448</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.291633114094594</v>
+        <v>2.595349845497594</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.821097217374074</v>
+        <v>1.911605811620007</v>
       </c>
       <c r="C19">
-        <v>0.5899876560391704</v>
+        <v>0.2927087238007573</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09801050790648347</v>
+        <v>0.2213439683658969</v>
       </c>
       <c r="F19">
-        <v>1.043000142111381</v>
+        <v>1.721989475104621</v>
       </c>
       <c r="G19">
-        <v>0.0007842696413235615</v>
+        <v>0.002431552929323887</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1960538033089989</v>
+        <v>0.6746279529399644</v>
       </c>
       <c r="J19">
-        <v>0.06967203302629343</v>
+        <v>0.04293315330533432</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7478130631932629</v>
+        <v>0.6139522802627084</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.287638571883775</v>
+        <v>2.597135984201714</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.010260935069539</v>
+        <v>1.969776738435769</v>
       </c>
       <c r="C20">
-        <v>0.6084221379285282</v>
+        <v>0.2987097229992628</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09928530471899322</v>
+        <v>0.2212615717998254</v>
       </c>
       <c r="F20">
-        <v>1.065651051658278</v>
+        <v>1.721817910003921</v>
       </c>
       <c r="G20">
-        <v>0.0007826363066022678</v>
+        <v>0.002430571643213721</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1926813022273066</v>
+        <v>0.6705680145536554</v>
       </c>
       <c r="J20">
-        <v>0.07152276229581389</v>
+        <v>0.04353466542438866</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7744884147038533</v>
+        <v>0.6208923378960094</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.306051280973918</v>
+        <v>2.589243787884101</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.648118685778059</v>
+        <v>2.165075302658749</v>
       </c>
       <c r="C21">
-        <v>0.670543296961057</v>
+        <v>0.3188150515237567</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1037296658831011</v>
+        <v>0.2210732038434564</v>
       </c>
       <c r="F21">
-        <v>1.145391290690398</v>
+        <v>1.72253497689421</v>
       </c>
       <c r="G21">
-        <v>0.0007772268753658472</v>
+        <v>0.002427379791249899</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1830846795089904</v>
+        <v>0.6575545905201992</v>
       </c>
       <c r="J21">
-        <v>0.07777227007026966</v>
+        <v>0.04555905418617101</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8647976219026816</v>
+        <v>0.644396168759215</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.375942968439688</v>
+        <v>2.56528023375418</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.067029199297622</v>
+        <v>2.292591670394131</v>
       </c>
       <c r="C22">
-        <v>0.7113105868581613</v>
+        <v>0.3319111098281837</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.106761139902698</v>
+        <v>0.221015855419882</v>
       </c>
       <c r="F22">
-        <v>1.200430471198828</v>
+        <v>1.723968498353642</v>
       </c>
       <c r="G22">
-        <v>0.0007737465487119376</v>
+        <v>0.002425371767691309</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1781961327414336</v>
+        <v>0.6495184295027059</v>
       </c>
       <c r="J22">
-        <v>0.08188276028935348</v>
+        <v>0.04688445415450815</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9243887633649024</v>
+        <v>0.6598943976116232</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.428090089876918</v>
+        <v>2.551527199669295</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.843240978230085</v>
+        <v>2.224545788684736</v>
       </c>
       <c r="C23">
-        <v>0.6895349384768394</v>
+        <v>0.3249256001348044</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1051311369392316</v>
+        <v>0.2210404577291953</v>
       </c>
       <c r="F23">
-        <v>1.170773160488707</v>
+        <v>1.723115062861197</v>
       </c>
       <c r="G23">
-        <v>0.0007755992503772934</v>
+        <v>0.002426436367909957</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1806726109831231</v>
+        <v>0.6537644989488314</v>
       </c>
       <c r="J23">
-        <v>0.07968634464324253</v>
+        <v>0.04617686032779034</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8925278362861491</v>
+        <v>0.6516102607718892</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.399633823761576</v>
+        <v>2.558692460278763</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.999865129240106</v>
+        <v>1.966582793294833</v>
       </c>
       <c r="C24">
-        <v>0.6074091868692335</v>
+        <v>0.2983803886799308</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09921470884849271</v>
+        <v>0.2212657633291428</v>
       </c>
       <c r="F24">
-        <v>1.064394016703872</v>
+        <v>1.721822467418434</v>
       </c>
       <c r="G24">
-        <v>0.0007827256986702962</v>
+        <v>0.002430625134530711</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1928602005184175</v>
+        <v>0.6707886097936147</v>
       </c>
       <c r="J24">
-        <v>0.07142101796313227</v>
+        <v>0.04350162003140667</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.773021104787432</v>
+        <v>0.6205105184251636</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.305011131596586</v>
+        <v>2.58966759896569</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.096838319971766</v>
+        <v>1.687881447798986</v>
       </c>
       <c r="C25">
-        <v>0.5193508211731057</v>
+        <v>0.2695668026249791</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09333522350043211</v>
+        <v>0.221792288185064</v>
       </c>
       <c r="F25">
-        <v>0.9608510360038736</v>
+        <v>1.724565405948724</v>
       </c>
       <c r="G25">
-        <v>0.0007906702190513878</v>
+        <v>0.002435480539961658</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2113744486346398</v>
+        <v>0.6911568394611507</v>
       </c>
       <c r="J25">
-        <v>0.06260024698147504</v>
+        <v>0.04062718116349373</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6461821702938835</v>
+        <v>0.5875636996242264</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.227656989694651</v>
+        <v>2.631236718433286</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_73/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.48233129632132</v>
+        <v>3.435511113735743</v>
       </c>
       <c r="C2">
-        <v>0.2482008696125888</v>
+        <v>0.4547630557800346</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2224249889558898</v>
+        <v>0.08939414147292979</v>
       </c>
       <c r="F2">
-        <v>1.730135100785049</v>
+        <v>0.89286448416604</v>
       </c>
       <c r="G2">
-        <v>0.002439348504210898</v>
+        <v>0.0007967637831468983</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7078716785253718</v>
+        <v>0.2290484456912161</v>
       </c>
       <c r="J2">
-        <v>0.03852121305155265</v>
+        <v>0.05616838122812595</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5638261547553753</v>
+        <v>0.5541727827567513</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.668821190617322</v>
+        <v>1.188856371609802</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.342838457139123</v>
+        <v>2.988577045403247</v>
       </c>
       <c r="C3">
-        <v>0.2336297118149275</v>
+        <v>0.4110567514302659</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2230072569894173</v>
+        <v>0.08694508565483972</v>
       </c>
       <c r="F3">
-        <v>1.73612048323141</v>
+        <v>0.8513077176477566</v>
       </c>
       <c r="G3">
-        <v>0.002442154109169425</v>
+        <v>0.0008010560098785798</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7202676486182042</v>
+        <v>0.2432865170440763</v>
       </c>
       <c r="J3">
-        <v>0.03710096342302194</v>
+        <v>0.05184040713914939</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5480674279924074</v>
+        <v>0.4925004008004237</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.698625649367003</v>
+        <v>1.172482700723748</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.257106423246455</v>
+        <v>2.714489348422205</v>
       </c>
       <c r="C4">
-        <v>0.2246390865130081</v>
+        <v>0.3842268745782178</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2234407044868014</v>
+        <v>0.08554462082464553</v>
       </c>
       <c r="F4">
-        <v>1.740884932627303</v>
+        <v>0.8278283110049856</v>
       </c>
       <c r="G4">
-        <v>0.002443968137365772</v>
+        <v>0.0008037747937795737</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7284045246273241</v>
+        <v>0.253063559663806</v>
       </c>
       <c r="J4">
-        <v>0.03623254804905685</v>
+        <v>0.0491958810726949</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5385549524080204</v>
+        <v>0.4549168567271238</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.719056679568027</v>
+        <v>1.16689508281857</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.222151400771963</v>
+        <v>2.602842097221355</v>
       </c>
       <c r="C5">
-        <v>0.2209645445754234</v>
+        <v>0.3732915630452283</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2236364696800575</v>
+        <v>0.08499903243555806</v>
       </c>
       <c r="F5">
-        <v>1.743100326541857</v>
+        <v>0.8187455753976849</v>
       </c>
       <c r="G5">
-        <v>0.002444730413988642</v>
+        <v>0.0008049041111987175</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7318523656658567</v>
+        <v>0.2572966837835473</v>
       </c>
       <c r="J5">
-        <v>0.0358796074998402</v>
+        <v>0.04812114036733561</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5347199537193035</v>
+        <v>0.4396653769663175</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.727917418158412</v>
+        <v>1.165681047576811</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.216346095774611</v>
+        <v>2.584304865533795</v>
       </c>
       <c r="C6">
-        <v>0.2203537452764124</v>
+        <v>0.371475552030148</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2236701329728756</v>
+        <v>0.08490993041776207</v>
       </c>
       <c r="F6">
-        <v>1.743484727579776</v>
+        <v>0.8172659472297141</v>
       </c>
       <c r="G6">
-        <v>0.002444858383492399</v>
+        <v>0.0008050929378519135</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7324328437168539</v>
+        <v>0.258014303585961</v>
       </c>
       <c r="J6">
-        <v>0.03582106013499242</v>
+        <v>0.04794284853896968</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5340856655445521</v>
+        <v>0.437136551255918</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.729421018310305</v>
+        <v>1.165541961690764</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.256635079502018</v>
+        <v>2.712983497383448</v>
       </c>
       <c r="C7">
-        <v>0.2245895737154342</v>
+        <v>0.3840794092438387</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2234432671299551</v>
+        <v>0.0855371622488903</v>
       </c>
       <c r="F7">
-        <v>1.740913701558483</v>
+        <v>0.8277038874973357</v>
       </c>
       <c r="G7">
-        <v>0.002443978324251651</v>
+        <v>0.0008037899369853444</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7284504892210997</v>
+        <v>0.2531196558084652</v>
       </c>
       <c r="J7">
-        <v>0.03622778429424045</v>
+        <v>0.0491813752932444</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5385030641808441</v>
+        <v>0.4547109195008971</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.71917401391606</v>
+        <v>1.16687448308555</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.43425270355732</v>
+        <v>3.281315793896397</v>
       </c>
       <c r="C8">
-        <v>0.2431859818369446</v>
+        <v>0.4396897296925317</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2226100176871739</v>
+        <v>0.08852774627303717</v>
       </c>
       <c r="F8">
-        <v>1.73197269428708</v>
+        <v>0.878096440649216</v>
       </c>
       <c r="G8">
-        <v>0.002440296953108719</v>
+        <v>0.000798226714482932</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7120365848545021</v>
+        <v>0.233735976732838</v>
       </c>
       <c r="J8">
-        <v>0.0380307790792962</v>
+        <v>0.05467322954738307</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5583588036437419</v>
+        <v>0.5328448214972781</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.678654930298222</v>
+        <v>1.182246735795971</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.781818881814047</v>
+        <v>4.400332463417726</v>
       </c>
       <c r="C9">
-        <v>0.2792964360062058</v>
+        <v>0.5489618863997237</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2215769483741141</v>
+        <v>0.09525265741672584</v>
       </c>
       <c r="F9">
-        <v>1.723089455463139</v>
+        <v>0.9943596936945909</v>
       </c>
       <c r="G9">
-        <v>0.002433799681315419</v>
+        <v>0.0007879576253914534</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6840284774833876</v>
+        <v>0.2044733999306736</v>
       </c>
       <c r="J9">
-        <v>0.04159387204904164</v>
+        <v>0.06556060771639949</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5985813719161968</v>
+        <v>0.6886682993465314</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.616147668264773</v>
+        <v>1.250696700267923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.036637107487024</v>
+        <v>5.228140937372245</v>
       </c>
       <c r="C10">
-        <v>0.3055997833247659</v>
+        <v>0.6296482206146266</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2211823557134203</v>
+        <v>0.1007788450896889</v>
       </c>
       <c r="F10">
-        <v>1.721847347271577</v>
+        <v>1.092316907074519</v>
       </c>
       <c r="G10">
-        <v>0.00242946180980208</v>
+        <v>0.0007807722699471614</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6660097676305483</v>
+        <v>0.1891009737296407</v>
       </c>
       <c r="J10">
-        <v>0.04422689646723654</v>
+        <v>0.07365603153014177</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6289048306161078</v>
+        <v>0.8052754058544451</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.580616452829901</v>
+        <v>1.328593854877454</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.152427113607985</v>
+        <v>5.606674819618263</v>
       </c>
       <c r="C11">
-        <v>0.3175147882221836</v>
+        <v>0.6665088245640902</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.221081573257063</v>
+        <v>0.1034344276501002</v>
       </c>
       <c r="F11">
-        <v>1.72243229130612</v>
+        <v>1.140058370006273</v>
       </c>
       <c r="G11">
-        <v>0.002427582064059057</v>
+        <v>0.0007775741190230313</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6583705405436575</v>
+        <v>0.1836278348303146</v>
       </c>
       <c r="J11">
-        <v>0.04542773618049267</v>
+        <v>0.07736584968453997</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6428651272940158</v>
+        <v>0.8589138253240378</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.566721917498711</v>
+        <v>1.371047449152371</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.19625344309577</v>
+        <v>5.750360716581383</v>
       </c>
       <c r="C12">
-        <v>0.3220192239852793</v>
+        <v>0.6804953490440084</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2210546940313698</v>
+        <v>0.1044616855760943</v>
       </c>
       <c r="F12">
-        <v>1.722819321613812</v>
+        <v>1.15863509547593</v>
       </c>
       <c r="G12">
-        <v>0.002426883637840156</v>
+        <v>0.000776372549680145</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6555581514671971</v>
+        <v>0.1817910758129457</v>
       </c>
       <c r="J12">
-        <v>0.0458828731987424</v>
+        <v>0.07877510382373742</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6481751381801359</v>
+        <v>0.8793221140613241</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.561787705248349</v>
+        <v>1.388225242560338</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.186815623630366</v>
+        <v>5.719399081923711</v>
       </c>
       <c r="C13">
-        <v>0.3210494515171831</v>
+        <v>0.677481748196783</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2210599816091623</v>
+        <v>0.1042394632764321</v>
       </c>
       <c r="F13">
-        <v>1.722728603456162</v>
+        <v>1.154611431305142</v>
       </c>
       <c r="G13">
-        <v>0.002427033461893829</v>
+        <v>0.0007766309171893798</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6561602692055075</v>
+        <v>0.1821758786552401</v>
       </c>
       <c r="J13">
-        <v>0.04578483384381116</v>
+        <v>0.0784713900972136</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6470304900572899</v>
+        <v>0.8749223392017029</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.562835799875501</v>
+        <v>1.384475156786607</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.15603316338013</v>
+        <v>5.618488692794585</v>
       </c>
       <c r="C14">
-        <v>0.3178855229764679</v>
+        <v>0.6676589039029466</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2210791359203057</v>
+        <v>0.1035184993529832</v>
       </c>
       <c r="F14">
-        <v>1.722460814261112</v>
+        <v>1.141576461851244</v>
       </c>
       <c r="G14">
-        <v>0.002427524336008928</v>
+        <v>0.0007774750785451477</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6581375504720199</v>
+        <v>0.1834718942769236</v>
       </c>
       <c r="J14">
-        <v>0.04546517266052064</v>
+        <v>0.07748169801807592</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6433015149528387</v>
+        <v>0.8605908240670033</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.566309410100388</v>
+        <v>1.372438044884149</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.137175233335029</v>
+        <v>5.556724793176443</v>
       </c>
       <c r="C15">
-        <v>0.3159465388556555</v>
+        <v>0.6616459830011934</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2210923370822577</v>
+        <v>0.1030797463779578</v>
       </c>
       <c r="F15">
-        <v>1.722318346513688</v>
+        <v>1.133658292318344</v>
       </c>
       <c r="G15">
-        <v>0.002427826752753225</v>
+        <v>0.0007779933693223916</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6593591726287897</v>
+        <v>0.1842969837450816</v>
       </c>
       <c r="J15">
-        <v>0.04526942266215883</v>
+        <v>0.07687607570338173</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6410204673599651</v>
+        <v>0.851825285122743</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.568479759365459</v>
+        <v>1.365211285219686</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.029067173963767</v>
+        <v>5.20344743361494</v>
       </c>
       <c r="C16">
-        <v>0.3048200714225118</v>
+        <v>0.6272429148425545</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2211905231408728</v>
+        <v>0.1006082544173452</v>
       </c>
       <c r="F16">
-        <v>1.721832274012129</v>
+        <v>1.089264299289894</v>
       </c>
       <c r="G16">
-        <v>0.002429586533196975</v>
+        <v>0.0007809826419357183</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6665202495943952</v>
+        <v>0.1894906843103996</v>
       </c>
       <c r="J16">
-        <v>0.0441484773777745</v>
+        <v>0.07341417629900349</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6279958052767824</v>
+        <v>0.8017828904202133</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.581570241167896</v>
+        <v>1.325968363149457</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.962711850461744</v>
+        <v>4.987267297537471</v>
       </c>
       <c r="C17">
-        <v>0.2979812235289785</v>
+        <v>0.6061816513057749</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2212708942571382</v>
+        <v>0.09912924217487884</v>
       </c>
       <c r="F17">
-        <v>1.721828736233974</v>
+        <v>1.062872606268627</v>
       </c>
       <c r="G17">
-        <v>0.002430690023075055</v>
+        <v>0.0007828340821262578</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6710563187628047</v>
+        <v>0.1930779889121688</v>
       </c>
       <c r="J17">
-        <v>0.04346157309497301</v>
+        <v>0.07129772751045493</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6200478849832507</v>
+        <v>0.7712431949677807</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.590182701793964</v>
+        <v>1.303755029420159</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.92453411048416</v>
+        <v>4.863106668632668</v>
       </c>
       <c r="C18">
-        <v>0.2940429589000075</v>
+        <v>0.5940820753425271</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2213245331516411</v>
+        <v>0.09829180904013413</v>
       </c>
       <c r="F18">
-        <v>1.721934934104624</v>
+        <v>1.047989526937329</v>
       </c>
       <c r="G18">
-        <v>0.002431333532708581</v>
+        <v>0.0007839056585731257</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6737178128662826</v>
+        <v>0.1952832607544224</v>
       </c>
       <c r="J18">
-        <v>0.04306677438907514</v>
+        <v>0.07008292571838837</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6154920955624448</v>
+        <v>0.7537326843819869</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.595349845497594</v>
+        <v>1.291633114094509</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.911605811620007</v>
+        <v>4.821097217374017</v>
       </c>
       <c r="C19">
-        <v>0.2927087238007573</v>
+        <v>0.5899876560391419</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2213439683658969</v>
+        <v>0.09801050790649057</v>
       </c>
       <c r="F19">
-        <v>1.721989475104621</v>
+        <v>1.043000142111396</v>
       </c>
       <c r="G19">
-        <v>0.002431552929323887</v>
+        <v>0.0007842696413794175</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6746279529399644</v>
+        <v>0.1960538033090131</v>
       </c>
       <c r="J19">
-        <v>0.04293315330533432</v>
+        <v>0.06967203302632896</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6139522802627084</v>
+        <v>0.7478130631932345</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.597135984201714</v>
+        <v>1.287638571883775</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.969776738435769</v>
+        <v>5.010260935069539</v>
       </c>
       <c r="C20">
-        <v>0.2987097229992628</v>
+        <v>0.6084221379284145</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2212615717998254</v>
+        <v>0.09928530471897545</v>
       </c>
       <c r="F20">
-        <v>1.721817910003921</v>
+        <v>1.065651051658278</v>
       </c>
       <c r="G20">
-        <v>0.002430571643213721</v>
+        <v>0.0007826363067385639</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6705680145536554</v>
+        <v>0.1926813022273066</v>
       </c>
       <c r="J20">
-        <v>0.04353466542438866</v>
+        <v>0.07152276229586363</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6208923378960094</v>
+        <v>0.7744884147038817</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.589243787884101</v>
+        <v>1.306051280973918</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.165075302658749</v>
+        <v>5.648118685778059</v>
       </c>
       <c r="C21">
-        <v>0.3188150515237567</v>
+        <v>0.6705432969610285</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2210732038434564</v>
+        <v>0.1037296658830691</v>
       </c>
       <c r="F21">
-        <v>1.72253497689421</v>
+        <v>1.145391290690412</v>
       </c>
       <c r="G21">
-        <v>0.002427379791249899</v>
+        <v>0.0007772268753299801</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6575545905201992</v>
+        <v>0.1830846795089762</v>
       </c>
       <c r="J21">
-        <v>0.04555905418617101</v>
+        <v>0.07777227007029097</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.644396168759215</v>
+        <v>0.8647976219027669</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.56528023375418</v>
+        <v>1.375942968439716</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.292591670394131</v>
+        <v>6.067029199297451</v>
       </c>
       <c r="C22">
-        <v>0.3319111098281837</v>
+        <v>0.7113105868581329</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.221015855419882</v>
+        <v>0.1067611399027122</v>
       </c>
       <c r="F22">
-        <v>1.723968498353642</v>
+        <v>1.200430471198828</v>
       </c>
       <c r="G22">
-        <v>0.002425371767691309</v>
+        <v>0.0007737465486816417</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6495184295027059</v>
+        <v>0.1781961327414301</v>
       </c>
       <c r="J22">
-        <v>0.04688445415450815</v>
+        <v>0.08188276028939612</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6598943976116232</v>
+        <v>0.9243887633648455</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.551527199669295</v>
+        <v>1.428090089876918</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.224545788684736</v>
+        <v>5.843240978230142</v>
       </c>
       <c r="C23">
-        <v>0.3249256001348044</v>
+        <v>0.6895349384768394</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2210404577291953</v>
+        <v>0.1051311369392351</v>
       </c>
       <c r="F23">
-        <v>1.723115062861197</v>
+        <v>1.170773160488721</v>
       </c>
       <c r="G23">
-        <v>0.002426436367909957</v>
+        <v>0.0007755992503759511</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6537644989488314</v>
+        <v>0.1806726109831374</v>
       </c>
       <c r="J23">
-        <v>0.04617686032779034</v>
+        <v>0.07968634464317148</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6516102607718892</v>
+        <v>0.8925278362859785</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.558692460278763</v>
+        <v>1.399633823761519</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.966582793294833</v>
+        <v>4.999865129240106</v>
       </c>
       <c r="C24">
-        <v>0.2983803886799308</v>
+        <v>0.6074091868692904</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2212657633291428</v>
+        <v>0.09921470884848915</v>
       </c>
       <c r="F24">
-        <v>1.721822467418434</v>
+        <v>1.064394016703901</v>
       </c>
       <c r="G24">
-        <v>0.002430625134530711</v>
+        <v>0.0007827256985544991</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6707886097936147</v>
+        <v>0.1928602005184104</v>
       </c>
       <c r="J24">
-        <v>0.04350162003140667</v>
+        <v>0.07142101796312517</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6205105184251636</v>
+        <v>0.7730211047874604</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.58966759896569</v>
+        <v>1.30501113159653</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.687881447798986</v>
+        <v>4.09683831997171</v>
       </c>
       <c r="C25">
-        <v>0.2695668026249791</v>
+        <v>0.5193508211733331</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.221792288185064</v>
+        <v>0.09333522350045342</v>
       </c>
       <c r="F25">
-        <v>1.724565405948724</v>
+        <v>0.9608510360038736</v>
       </c>
       <c r="G25">
-        <v>0.002435480539961658</v>
+        <v>0.0007906702189929282</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6911568394611507</v>
+        <v>0.2113744486346363</v>
       </c>
       <c r="J25">
-        <v>0.04062718116349373</v>
+        <v>0.06260024698148925</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5875636996242264</v>
+        <v>0.6461821702939403</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.631236718433286</v>
+        <v>1.227656989694708</v>
       </c>
     </row>
   </sheetData>
